--- a/SW deliveries log/PO3_DGW_PP.xlsx
+++ b/SW deliveries log/PO3_DGW_PP.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariam\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iTi_Workspace\SE_Workspace\SWENG_PO3_DigitalWatch\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BE46D69-6AFF-4DF8-9676-9A176D5C98AF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EF23B2-CAFD-4B2C-8B95-88C8AD241336}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2CF37E19-25A2-4CED-AE59-D4BDD2575E03}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Schedule" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Task</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Digital Watch - Project Plan</t>
+  </si>
+  <si>
+    <t>Waiting for CYRS</t>
   </si>
 </sst>
 </file>
@@ -297,6 +300,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -305,12 +314,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -334,55 +337,141 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -400,139 +489,18 @@
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -544,35 +512,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -595,17 +535,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCDA7EFA-C936-4D31-BA84-93136A92BAF9}" name="Table1" displayName="Table1" ref="A3:H37" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCDA7EFA-C936-4D31-BA84-93136A92BAF9}" name="Table1" displayName="Table1" ref="A3:H37" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A3:H37" xr:uid="{4DD7AFAA-9132-4DA9-A972-40C8E104E101}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5D435C90-030F-4F22-A89D-CFAC68C0B66E}" name="Task" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{369F5B02-B85E-48BA-9AD7-AD0D0367E947}" name="Owner" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{795A02F8-1D6A-4C27-9A3F-05D059453EA7}" name="Expected Start Date" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{3CB9545B-F525-4F0A-BEE3-F39F4E61E60B}" name="Epected End Date" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{4C598880-0D55-485A-8F38-DA9FA5A266BC}" name="Actual Start Date" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{88DB0EA5-C69C-4AC7-AB2A-8BF8FBA66541}" name="Actual End Date" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{F0411852-508B-4E23-BAB8-F6EE6768F091}" name="Status" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{E7FCF542-D348-4FB8-9C19-37D400976552}" name="Comments" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{5D435C90-030F-4F22-A89D-CFAC68C0B66E}" name="Task" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{369F5B02-B85E-48BA-9AD7-AD0D0367E947}" name="Owner" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{795A02F8-1D6A-4C27-9A3F-05D059453EA7}" name="Expected Start Date" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{3CB9545B-F525-4F0A-BEE3-F39F4E61E60B}" name="Epected End Date" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{4C598880-0D55-485A-8F38-DA9FA5A266BC}" name="Actual Start Date" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{88DB0EA5-C69C-4AC7-AB2A-8BF8FBA66541}" name="Actual End Date" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{F0411852-508B-4E23-BAB8-F6EE6768F091}" name="Status" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{E7FCF542-D348-4FB8-9C19-37D400976552}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -911,7 +851,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -924,7 +864,7 @@
     <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>27</v>
       </c>
@@ -990,16 +930,19 @@
       <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="G4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -1017,14 +960,17 @@
       <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="G5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="7"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -1042,11 +988,14 @@
       <c r="G6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="H6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="7"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -1064,8 +1013,8 @@
       <c r="G7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="K7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -1083,8 +1032,8 @@
       <c r="G8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="K8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1122,16 +1071,16 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G85">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Problems">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Problems">
       <formula>NOT(ISERROR(SEARCH("Problems",G4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",G4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Working">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Working">
       <formula>NOT(ISERROR(SEARCH("Working",G4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Not started">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Not started">
       <formula>NOT(ISERROR(SEARCH("Not started",G4)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SW deliveries log/PO3_DGW_PP.xlsx
+++ b/SW deliveries log/PO3_DGW_PP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iTi_Workspace\SE_Workspace\SWENG_PO3_DigitalWatch\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EF23B2-CAFD-4B2C-8B95-88C8AD241336}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DBBB4D-C390-4F75-93DE-5D0E2D97ADDA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2CF37E19-25A2-4CED-AE59-D4BDD2575E03}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Task</t>
   </si>
@@ -117,7 +117,7 @@
     <t>Digital Watch - Project Plan</t>
   </si>
   <si>
-    <t>Waiting for CYRS</t>
+    <t>25/1/2020</t>
   </si>
 </sst>
 </file>
@@ -851,7 +851,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -933,8 +933,11 @@
       <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G4" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>25</v>
@@ -985,11 +988,11 @@
       <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="3" t="s">
@@ -1010,8 +1013,11 @@
       <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7"/>
       <c r="K7" s="4"/>
@@ -1029,8 +1035,11 @@
       <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="E8" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G8" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I8" s="8"/>
       <c r="K8" s="4"/>

--- a/SW deliveries log/PO3_DGW_PP.xlsx
+++ b/SW deliveries log/PO3_DGW_PP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iTi_Workspace\SE_Workspace\SWENG_PO3_DigitalWatch\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DBBB4D-C390-4F75-93DE-5D0E2D97ADDA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77651C3-ED7A-4A8B-A22D-A29D1BE4B55D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2CF37E19-25A2-4CED-AE59-D4BDD2575E03}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>Task</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>25/1/2020</t>
+  </si>
+  <si>
+    <t>30/1/2020</t>
   </si>
 </sst>
 </file>
@@ -851,7 +854,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -991,8 +994,11 @@
       <c r="E6" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G6" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="3" t="s">
@@ -1038,8 +1044,11 @@
       <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="F8" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G8" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I8" s="8"/>
       <c r="K8" s="4"/>

--- a/SW deliveries log/PO3_DGW_PP.xlsx
+++ b/SW deliveries log/PO3_DGW_PP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iTi_Workspace\SE_Workspace\SWENG_PO3_DigitalWatch\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77651C3-ED7A-4A8B-A22D-A29D1BE4B55D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F98050-9315-42CD-AE25-50956AD2BE44}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2CF37E19-25A2-4CED-AE59-D4BDD2575E03}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>Task</t>
   </si>
@@ -121,6 +121,39 @@
   </si>
   <si>
     <t>30/1/2020</t>
+  </si>
+  <si>
+    <t>CYRS Document Update</t>
+  </si>
+  <si>
+    <t>CYRS &amp; HSI Review</t>
+  </si>
+  <si>
+    <t>Bassem</t>
+  </si>
+  <si>
+    <t>SRS Document Update</t>
+  </si>
+  <si>
+    <t>Ghada</t>
+  </si>
+  <si>
+    <t>Waiting for CYRS &amp; HSI</t>
+  </si>
+  <si>
+    <t>SRS Document Review</t>
+  </si>
+  <si>
+    <t>Amr</t>
+  </si>
+  <si>
+    <t>Waiting for SRS</t>
+  </si>
+  <si>
+    <t>RTM Update</t>
+  </si>
+  <si>
+    <t>Waiting for Released docs</t>
   </si>
 </sst>
 </file>
@@ -187,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -197,6 +230,92 @@
     </border>
     <border>
       <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
         <color indexed="64"/>
       </left>
       <right/>
@@ -208,84 +327,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
+      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -294,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -309,14 +351,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -324,8 +366,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,8 +375,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -854,7 +902,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -868,28 +916,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -1050,14 +1098,119 @@
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="8"/>
+      <c r="I8" s="7"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="14">
+        <v>43892</v>
+      </c>
+      <c r="D9" s="14">
+        <v>43923</v>
+      </c>
+      <c r="E9" s="14">
+        <v>43892</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="14">
+        <v>43923</v>
+      </c>
+      <c r="D10" s="14">
+        <v>43923</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="14">
+        <v>43923</v>
+      </c>
+      <c r="D11" s="14">
+        <v>43953</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="14">
+        <v>43953</v>
+      </c>
+      <c r="D12" s="14">
+        <v>43953</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="14">
+        <v>43984</v>
+      </c>
+      <c r="D13" s="14">
+        <v>43984</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="K13" s="15"/>
+    </row>
     <row r="14" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1084,9 +1237,9 @@
     <row r="37" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="I4:I8"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I4:I13"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G85">
     <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Problems">

--- a/SW deliveries log/PO3_DGW_PP.xlsx
+++ b/SW deliveries log/PO3_DGW_PP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iTi_Workspace\SE_Workspace\SWENG_PO3_DigitalWatch\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F98050-9315-42CD-AE25-50956AD2BE44}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F43DC95-E6FB-4F82-8D6F-4837AE4D10F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2CF37E19-25A2-4CED-AE59-D4BDD2575E03}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t>Task</t>
   </si>
@@ -351,35 +351,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
@@ -902,7 +902,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -990,7 +990,7 @@
       <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -1020,7 +1020,7 @@
       <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1048,7 +1048,7 @@
       <c r="G6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="15"/>
       <c r="J6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1070,10 +1070,13 @@
       <c r="E7" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="F7" s="6">
+        <v>43923</v>
+      </c>
       <c r="G7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="I7" s="15"/>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1098,7 +1101,7 @@
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="15"/>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1108,20 +1111,23 @@
       <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="6">
         <v>43892</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="6">
         <v>43923</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="6">
         <v>43892</v>
       </c>
+      <c r="F9" s="6">
+        <v>43923</v>
+      </c>
       <c r="G9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="K9" s="15"/>
+        <v>4</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -1130,20 +1136,23 @@
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="6">
         <v>43923</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="6">
         <v>43923</v>
       </c>
+      <c r="E10" s="6">
+        <v>43953</v>
+      </c>
+      <c r="F10" s="6">
+        <v>43953</v>
+      </c>
       <c r="G10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="K10" s="15"/>
+        <v>4</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -1152,10 +1161,10 @@
       <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="6">
         <v>43923</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="6">
         <v>43953</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -1164,8 +1173,8 @@
       <c r="H11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="K11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -1174,10 +1183,10 @@
       <c r="B12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="6">
         <v>43953</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="6">
         <v>43953</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -1186,8 +1195,8 @@
       <c r="H12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="K12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -1196,10 +1205,10 @@
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="6">
         <v>43984</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="6">
         <v>43984</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -1209,7 +1218,7 @@
         <v>40</v>
       </c>
       <c r="I13" s="16"/>
-      <c r="K13" s="15"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/SW deliveries log/PO3_DGW_PP.xlsx
+++ b/SW deliveries log/PO3_DGW_PP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iTi_Workspace\SE_Workspace\SWENG_PO3_DigitalWatch\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F43DC95-E6FB-4F82-8D6F-4837AE4D10F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A12CD30-104B-47A1-BECE-C22F2A9C012B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2CF37E19-25A2-4CED-AE59-D4BDD2575E03}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>Task</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>Ghada</t>
-  </si>
-  <si>
-    <t>Waiting for CYRS &amp; HSI</t>
   </si>
   <si>
     <t>SRS Document Review</t>
@@ -1167,21 +1164,21 @@
       <c r="D11" s="6">
         <v>43953</v>
       </c>
+      <c r="E11" s="6">
+        <v>43984</v>
+      </c>
       <c r="G11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I11" s="15"/>
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C12" s="6">
         <v>43953</v>
@@ -1193,14 +1190,14 @@
         <v>20</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="15"/>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>14</v>
@@ -1215,7 +1212,7 @@
         <v>20</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="16"/>
       <c r="K13" s="7"/>

--- a/SW deliveries log/PO3_DGW_PP.xlsx
+++ b/SW deliveries log/PO3_DGW_PP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iTi_Workspace\SE_Workspace\SWENG_PO3_DigitalWatch\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A12CD30-104B-47A1-BECE-C22F2A9C012B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DBB78C-2D84-4A66-A11B-5CACB79A9CF8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2CF37E19-25A2-4CED-AE59-D4BDD2575E03}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
   <si>
     <t>Task</t>
   </si>
@@ -60,21 +60,12 @@
     <t>Actual End Date</t>
   </si>
   <si>
-    <t>CYRS</t>
-  </si>
-  <si>
     <t>Bassem, Mohamed</t>
   </si>
   <si>
-    <t>SRS</t>
-  </si>
-  <si>
     <t>Ghada, Amr</t>
   </si>
   <si>
-    <t>SIQ</t>
-  </si>
-  <si>
     <t>Mariam</t>
   </si>
   <si>
@@ -144,13 +135,67 @@
     <t>Amr</t>
   </si>
   <si>
-    <t>Waiting for SRS</t>
-  </si>
-  <si>
     <t>RTM Update</t>
   </si>
   <si>
-    <t>Waiting for Released docs</t>
+    <t>13/2/2020</t>
+  </si>
+  <si>
+    <t>19/2/2020</t>
+  </si>
+  <si>
+    <t>Mariam El-Shakafi 20/02/2020 - SRS needs another update, as some points aren't compatible with covered CYRS points.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Write CYRS document</t>
+  </si>
+  <si>
+    <t>Write SIQ sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Create a template for SIQ.
+2. Gather inquiries from team members.
+</t>
+  </si>
+  <si>
+    <t>Write SRS document</t>
+  </si>
+  <si>
+    <t>1. Read CRS carefully, then Create initial draft for CYRS.
+2. Pass inquiries about CRS to Mariam to be handled in SIQ sheet.</t>
+  </si>
+  <si>
+    <t>1. Create initial draft for SRS based on current CYRS draft.
+2. Pass inquiries about CRS/CYRS to Mariam to be handled in SIQ sheet.</t>
+  </si>
+  <si>
+    <t>1. Create initial draft for HSI.
+2. Pass inquiries about CRS to Mariam to be handled in SIQ sheet.</t>
+  </si>
+  <si>
+    <t>Create an initial template for RTM, based on current CYRS and SRS drafts.</t>
+  </si>
+  <si>
+    <t>Edit CYRS based on Eng. Tarek's review sheet.</t>
+  </si>
+  <si>
+    <t>Check CYRS and HSI to make sure they are compatible with their respective review sheets, edit if necessary.</t>
+  </si>
+  <si>
+    <t>Edit SRS based on Eng. Tarek's review sheet.</t>
+  </si>
+  <si>
+    <t>1. Add context diagram to SRS.
+2. Check SRS to make sure it is compatible with its review sheet, edit document if necessary.</t>
+  </si>
+  <si>
+    <t>Fix document problems (Organize SRS points, so that they're compatible with covered CYRS points).</t>
+  </si>
+  <si>
+    <t>20/2/2020</t>
   </si>
 </sst>
 </file>
@@ -333,62 +378,74 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -399,7 +456,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -414,7 +471,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -429,112 +486,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -564,6 +516,126 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -583,17 +655,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCDA7EFA-C936-4D31-BA84-93136A92BAF9}" name="Table1" displayName="Table1" ref="A3:H37" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A3:H37" xr:uid="{4DD7AFAA-9132-4DA9-A972-40C8E104E101}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5D435C90-030F-4F22-A89D-CFAC68C0B66E}" name="Task" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{369F5B02-B85E-48BA-9AD7-AD0D0367E947}" name="Owner" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{795A02F8-1D6A-4C27-9A3F-05D059453EA7}" name="Expected Start Date" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{3CB9545B-F525-4F0A-BEE3-F39F4E61E60B}" name="Epected End Date" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{4C598880-0D55-485A-8F38-DA9FA5A266BC}" name="Actual Start Date" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{88DB0EA5-C69C-4AC7-AB2A-8BF8FBA66541}" name="Actual End Date" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{F0411852-508B-4E23-BAB8-F6EE6768F091}" name="Status" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{E7FCF542-D348-4FB8-9C19-37D400976552}" name="Comments" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCDA7EFA-C936-4D31-BA84-93136A92BAF9}" name="Table1" displayName="Table1" ref="A3:I38" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A3:I38" xr:uid="{4DD7AFAA-9132-4DA9-A972-40C8E104E101}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{5D435C90-030F-4F22-A89D-CFAC68C0B66E}" name="Task" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{1F30B38A-7B55-4426-9D46-2D40FC422F2D}" name="Description" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{369F5B02-B85E-48BA-9AD7-AD0D0367E947}" name="Owner" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{795A02F8-1D6A-4C27-9A3F-05D059453EA7}" name="Expected Start Date" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{3CB9545B-F525-4F0A-BEE3-F39F4E61E60B}" name="Epected End Date" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{4C598880-0D55-485A-8F38-DA9FA5A266BC}" name="Actual Start Date" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{88DB0EA5-C69C-4AC7-AB2A-8BF8FBA66541}" name="Actual End Date" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{F0411852-508B-4E23-BAB8-F6EE6768F091}" name="Status" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{E7FCF542-D348-4FB8-9C19-37D400976552}" name="Comments" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -896,374 +969,488 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77CBEE5-836F-4E68-99E7-88FE062854C8}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="25.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="25.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="50.77734375" style="18" customWidth="1"/>
+    <col min="3" max="7" width="25.77734375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="25.77734375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="6.77734375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="0" style="8" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="14">
+        <v>43923</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="B9" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="14">
+        <v>43892</v>
+      </c>
+      <c r="E9" s="14">
+        <v>43923</v>
+      </c>
+      <c r="F9" s="14">
+        <v>43892</v>
+      </c>
+      <c r="G9" s="14">
+        <v>43923</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="1:12" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="B10" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="14">
+        <v>43923</v>
+      </c>
+      <c r="E10" s="14">
+        <v>43923</v>
+      </c>
+      <c r="F10" s="14">
+        <v>43953</v>
+      </c>
+      <c r="G10" s="14">
+        <v>43953</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="J10" s="13"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:12" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="14">
+        <v>43923</v>
+      </c>
+      <c r="E11" s="14">
+        <v>43953</v>
+      </c>
+      <c r="F11" s="14">
+        <v>43984</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="J11" s="13"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="14">
+        <v>43953</v>
+      </c>
+      <c r="E12" s="14">
+        <v>43953</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="D13" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="6">
-        <v>43923</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="15"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="6">
-        <v>43892</v>
-      </c>
-      <c r="D9" s="6">
-        <v>43923</v>
-      </c>
-      <c r="E9" s="6">
-        <v>43892</v>
-      </c>
-      <c r="F9" s="6">
-        <v>43923</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6">
-        <v>43923</v>
-      </c>
-      <c r="D10" s="6">
-        <v>43923</v>
-      </c>
-      <c r="E10" s="6">
-        <v>43953</v>
-      </c>
-      <c r="F10" s="6">
-        <v>43953</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="6">
-        <v>43923</v>
-      </c>
-      <c r="D11" s="6">
-        <v>43953</v>
-      </c>
-      <c r="E11" s="6">
-        <v>43984</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="15"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="6">
-        <v>43953</v>
-      </c>
-      <c r="D12" s="6">
-        <v>43953</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="I14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6">
-        <v>43984</v>
-      </c>
-      <c r="D13" s="6">
-        <v>43984</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="16"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:11" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="J14" s="16"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="17"/>
+    </row>
+    <row r="16" spans="1:12" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="17"/>
+    </row>
+    <row r="17" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="17"/>
+    </row>
+    <row r="18" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="17"/>
+    </row>
+    <row r="19" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="17"/>
+    </row>
+    <row r="20" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="17"/>
+    </row>
+    <row r="21" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="17"/>
+    </row>
+    <row r="22" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="17"/>
+    </row>
+    <row r="23" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="17"/>
+    </row>
+    <row r="24" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="17"/>
+    </row>
+    <row r="25" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="17"/>
+    </row>
+    <row r="26" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="17"/>
+    </row>
+    <row r="27" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="17"/>
+    </row>
+    <row r="28" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="17"/>
+    </row>
+    <row r="29" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="17"/>
+    </row>
+    <row r="30" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="17"/>
+    </row>
+    <row r="31" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="17"/>
+    </row>
+    <row r="32" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="17"/>
+    </row>
+    <row r="33" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="17"/>
+    </row>
+    <row r="34" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="17"/>
+    </row>
+    <row r="35" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="17"/>
+    </row>
+    <row r="36" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="17"/>
+    </row>
+    <row r="37" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="17"/>
+    </row>
+    <row r="38" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="17"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I4:I13"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J4:J14"/>
   </mergeCells>
-  <conditionalFormatting sqref="G4:G85">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Problems">
-      <formula>NOT(ISERROR(SEARCH("Problems",G4)))</formula>
+  <conditionalFormatting sqref="H4:H86">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Problems">
+      <formula>NOT(ISERROR(SEARCH("Problems",H4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",G4)))</formula>
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",H4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Working">
-      <formula>NOT(ISERROR(SEARCH("Working",G4)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Working">
+      <formula>NOT(ISERROR(SEARCH("Working",H4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Not started">
-      <formula>NOT(ISERROR(SEARCH("Not started",G4)))</formula>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Not started">
+      <formula>NOT(ISERROR(SEARCH("Not started",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error" error="Choose from the drop-down list" sqref="G4:G37" xr:uid="{F112ACAC-A447-4858-94FC-F76DDB174C38}">
-      <formula1>$J$3:$J$6</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error" error="Choose from the drop-down list" sqref="H4:H38" xr:uid="{F112ACAC-A447-4858-94FC-F76DDB174C38}">
+      <formula1>$K$3:$K$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SW deliveries log/PO3_DGW_PP.xlsx
+++ b/SW deliveries log/PO3_DGW_PP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iTi_Workspace\SE_Workspace\SWENG_PO3_DigitalWatch\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DBB78C-2D84-4A66-A11B-5CACB79A9CF8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527FA921-8A4A-4C6A-8606-0F0C49B674D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2CF37E19-25A2-4CED-AE59-D4BDD2575E03}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
   <si>
     <t>Task</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>19/2/2020</t>
-  </si>
-  <si>
-    <t>Mariam El-Shakafi 20/02/2020 - SRS needs another update, as some points aren't compatible with covered CYRS points.</t>
   </si>
   <si>
     <t>Description</t>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>20/2/2020</t>
+  </si>
+  <si>
+    <t>Use SRS V0.6, and CYRS V0.4 to update RTM.</t>
   </si>
 </sst>
 </file>
@@ -380,6 +380,42 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -389,75 +425,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -472,79 +453,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -636,6 +544,98 @@
       </font>
       <alignment horizontal="center" vertical="center" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -655,18 +655,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCDA7EFA-C936-4D31-BA84-93136A92BAF9}" name="Table1" displayName="Table1" ref="A3:I38" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCDA7EFA-C936-4D31-BA84-93136A92BAF9}" name="Table1" displayName="Table1" ref="A3:I38" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A3:I38" xr:uid="{4DD7AFAA-9132-4DA9-A972-40C8E104E101}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5D435C90-030F-4F22-A89D-CFAC68C0B66E}" name="Task" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{1F30B38A-7B55-4426-9D46-2D40FC422F2D}" name="Description" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{369F5B02-B85E-48BA-9AD7-AD0D0367E947}" name="Owner" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{795A02F8-1D6A-4C27-9A3F-05D059453EA7}" name="Expected Start Date" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{3CB9545B-F525-4F0A-BEE3-F39F4E61E60B}" name="Epected End Date" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{4C598880-0D55-485A-8F38-DA9FA5A266BC}" name="Actual Start Date" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{88DB0EA5-C69C-4AC7-AB2A-8BF8FBA66541}" name="Actual End Date" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{F0411852-508B-4E23-BAB8-F6EE6768F091}" name="Status" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{E7FCF542-D348-4FB8-9C19-37D400976552}" name="Comments" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{5D435C90-030F-4F22-A89D-CFAC68C0B66E}" name="Task" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{1F30B38A-7B55-4426-9D46-2D40FC422F2D}" name="Description" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{369F5B02-B85E-48BA-9AD7-AD0D0367E947}" name="Owner" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{795A02F8-1D6A-4C27-9A3F-05D059453EA7}" name="Expected Start Date" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{3CB9545B-F525-4F0A-BEE3-F39F4E61E60B}" name="Epected End Date" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{4C598880-0D55-485A-8F38-DA9FA5A266BC}" name="Actual Start Date" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{88DB0EA5-C69C-4AC7-AB2A-8BF8FBA66541}" name="Actual End Date" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{F0411852-508B-4E23-BAB8-F6EE6768F091}" name="Status" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{E7FCF542-D348-4FB8-9C19-37D400976552}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -971,462 +971,470 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77CBEE5-836F-4E68-99E7-88FE062854C8}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="50.77734375" style="18" customWidth="1"/>
-    <col min="3" max="7" width="25.77734375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" style="8" customWidth="1"/>
-    <col min="9" max="9" width="25.77734375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="6.77734375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="0" style="8" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="25.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.77734375" style="9" customWidth="1"/>
+    <col min="3" max="7" width="25.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.77734375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6.77734375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="B4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="G7" s="6">
+        <v>43923</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="12"/>
-    </row>
-    <row r="5" spans="1:12" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="J7" s="17"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="F8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="12"/>
-    </row>
-    <row r="6" spans="1:12" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="J8" s="17"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="6">
+        <v>43892</v>
+      </c>
+      <c r="E9" s="6">
+        <v>43923</v>
+      </c>
+      <c r="F9" s="6">
+        <v>43892</v>
+      </c>
+      <c r="G9" s="6">
+        <v>43923</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="9" t="s">
+      <c r="J9" s="17"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="6">
+        <v>43923</v>
+      </c>
+      <c r="E10" s="6">
+        <v>43923</v>
+      </c>
+      <c r="F10" s="6">
+        <v>43953</v>
+      </c>
+      <c r="G10" s="6">
+        <v>43953</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="1:12" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="14">
+      <c r="J10" s="17"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="6">
         <v>43923</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="E11" s="6">
+        <v>43953</v>
+      </c>
+      <c r="F11" s="6">
+        <v>43984</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="1:12" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="J11" s="17"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="6">
+        <v>43953</v>
+      </c>
+      <c r="E12" s="6">
+        <v>43953</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="9" t="s">
+      <c r="D13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="1:12" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="14">
-        <v>43892</v>
-      </c>
-      <c r="E9" s="14">
-        <v>43923</v>
-      </c>
-      <c r="F9" s="14">
-        <v>43892</v>
-      </c>
-      <c r="G9" s="14">
-        <v>43923</v>
-      </c>
-      <c r="H9" s="9" t="s">
+      <c r="J13" s="17"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="L9" s="15"/>
-    </row>
-    <row r="10" spans="1:12" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="14">
-        <v>43923</v>
-      </c>
-      <c r="E10" s="14">
-        <v>43923</v>
-      </c>
-      <c r="F10" s="14">
-        <v>43953</v>
-      </c>
-      <c r="G10" s="14">
-        <v>43953</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="13"/>
-      <c r="L10" s="15"/>
-    </row>
-    <row r="11" spans="1:12" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="14">
-        <v>43923</v>
-      </c>
-      <c r="E11" s="14">
-        <v>43953</v>
-      </c>
-      <c r="F11" s="14">
-        <v>43984</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="L11" s="15"/>
-    </row>
-    <row r="12" spans="1:12" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="14">
-        <v>43953</v>
-      </c>
-      <c r="E12" s="14">
-        <v>43953</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="13"/>
-      <c r="L12" s="15"/>
-    </row>
-    <row r="13" spans="1:12" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="13"/>
-      <c r="L13" s="15"/>
-    </row>
-    <row r="14" spans="1:12" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="16"/>
-      <c r="L14" s="15"/>
-    </row>
-    <row r="15" spans="1:12" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="17"/>
-    </row>
-    <row r="16" spans="1:12" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="17"/>
-    </row>
-    <row r="17" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="17"/>
-    </row>
-    <row r="18" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="17"/>
-    </row>
-    <row r="19" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="17"/>
-    </row>
-    <row r="20" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="17"/>
-    </row>
-    <row r="21" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
-    </row>
-    <row r="22" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="17"/>
-    </row>
-    <row r="23" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="17"/>
-    </row>
-    <row r="24" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="17"/>
-    </row>
-    <row r="25" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="17"/>
-    </row>
-    <row r="26" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="17"/>
-    </row>
-    <row r="27" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="17"/>
-    </row>
-    <row r="28" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="17"/>
-    </row>
-    <row r="29" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="17"/>
-    </row>
-    <row r="30" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="17"/>
-    </row>
-    <row r="31" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="17"/>
-    </row>
-    <row r="32" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="17"/>
-    </row>
-    <row r="33" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="17"/>
-    </row>
-    <row r="34" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="17"/>
-    </row>
-    <row r="35" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="17"/>
-    </row>
-    <row r="36" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="17"/>
-    </row>
-    <row r="37" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="17"/>
-    </row>
-    <row r="38" spans="2:2" s="9" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="17"/>
+      <c r="J14" s="18"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="8"/>
+    </row>
+    <row r="30" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="8"/>
+    </row>
+    <row r="32" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="8"/>
+    </row>
+    <row r="33" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="8"/>
+    </row>
+    <row r="36" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="8"/>
+    </row>
+    <row r="37" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="8"/>
+    </row>
+    <row r="38" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1435,16 +1443,16 @@
     <mergeCell ref="J4:J14"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:H86">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Problems">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="Problems">
       <formula>NOT(ISERROR(SEARCH("Problems",H4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",H4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Working">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="Working">
       <formula>NOT(ISERROR(SEARCH("Working",H4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Not started">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Not started">
       <formula>NOT(ISERROR(SEARCH("Not started",H4)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SW deliveries log/PO3_DGW_PP.xlsx
+++ b/SW deliveries log/PO3_DGW_PP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iTi_Workspace\SE_Workspace\SWENG_PO3_DigitalWatch\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527FA921-8A4A-4C6A-8606-0F0C49B674D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2943BE33-9B83-4604-B404-E472F1ADC326}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2CF37E19-25A2-4CED-AE59-D4BDD2575E03}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="77">
   <si>
     <t>Task</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>24/1/2020</t>
-  </si>
-  <si>
-    <t>Initiation Phase</t>
   </si>
   <si>
     <t>Author: Mariam El-Shakafi</t>
@@ -196,6 +193,84 @@
   </si>
   <si>
     <t>Use SRS V0.6, and CYRS V0.4 to update RTM.</t>
+  </si>
+  <si>
+    <t>CYRS Update</t>
+  </si>
+  <si>
+    <t>Use SIQ sheet answers to modify false requirements in CYRS document.</t>
+  </si>
+  <si>
+    <t>22/2/2020</t>
+  </si>
+  <si>
+    <t>23/2/2020</t>
+  </si>
+  <si>
+    <t>Waiting for SIQ sheet answers</t>
+  </si>
+  <si>
+    <t>21/2/2020</t>
+  </si>
+  <si>
+    <t>SRS Update</t>
+  </si>
+  <si>
+    <t>Use updated CYRS to modify SRS</t>
+  </si>
+  <si>
+    <t>Waiting for CYRS update</t>
+  </si>
+  <si>
+    <t>CYRS &amp; SRS Review</t>
+  </si>
+  <si>
+    <t>1. Create a review sheet for CYRS
+2. Create a review sheet for SRS
+3. Make sure both documents are compatible with SIQ answers</t>
+  </si>
+  <si>
+    <t>Waiting for both documents</t>
+  </si>
+  <si>
+    <t>GDD Creation</t>
+  </si>
+  <si>
+    <t>Basem</t>
+  </si>
+  <si>
+    <t>Use final SRS version to create GDD</t>
+  </si>
+  <si>
+    <t>24/2/2020</t>
+  </si>
+  <si>
+    <t>26/2/2020</t>
+  </si>
+  <si>
+    <t>GDD Review</t>
+  </si>
+  <si>
+    <t>1. Make sure GDD is compatible with SRS
+2. Create a review sheet for GDD</t>
+  </si>
+  <si>
+    <t>GDD Update</t>
+  </si>
+  <si>
+    <t>Use both T.Sharaby's review sheet and Mohamed's review sheet to update GDD</t>
+  </si>
+  <si>
+    <t>27/2/2020</t>
+  </si>
+  <si>
+    <t>Add GDD column to RTM</t>
+  </si>
+  <si>
+    <t>Design Phase</t>
+  </si>
+  <si>
+    <t>Definition Phase</t>
   </si>
 </sst>
 </file>
@@ -242,7 +317,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,8 +336,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -367,9 +448,31 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="dotted">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -378,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -431,7 +534,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -971,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77CBEE5-836F-4E68-99E7-88FE062854C8}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -989,7 +1098,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -1002,7 +1111,7 @@
     </row>
     <row r="2" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1018,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
@@ -1047,10 +1156,10 @@
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -1065,13 +1174,13 @@
         <v>20</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>15</v>
@@ -1080,10 +1189,10 @@
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -1111,10 +1220,10 @@
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
@@ -1126,10 +1235,10 @@
         <v>21</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>4</v>
@@ -1145,7 +1254,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>12</v>
@@ -1157,7 +1266,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="6">
         <v>43923</v>
@@ -1173,7 +1282,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
@@ -1185,10 +1294,10 @@
         <v>21</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
@@ -1198,13 +1307,13 @@
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="6">
         <v>43892</v>
@@ -1226,10 +1335,10 @@
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>11</v>
@@ -1254,13 +1363,13 @@
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="D11" s="6">
         <v>43923</v>
@@ -1272,7 +1381,7 @@
         <v>43984</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>4</v>
@@ -1282,13 +1391,13 @@
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="D12" s="6">
         <v>43953</v>
@@ -1297,10 +1406,10 @@
         <v>43953</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
@@ -1310,25 +1419,25 @@
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>4</v>
@@ -1338,84 +1447,224 @@
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="18"/>
+      <c r="J14" s="17"/>
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
+      <c r="A15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="17"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
-    </row>
-    <row r="20" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="17"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="17"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
     </row>
-    <row r="24" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="8"/>
     </row>
-    <row r="25" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="8"/>
     </row>
-    <row r="26" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="8"/>
     </row>
-    <row r="28" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="8"/>
     </row>
-    <row r="29" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="8"/>
     </row>
-    <row r="30" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="8"/>
     </row>
-    <row r="31" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="8"/>
     </row>
-    <row r="32" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="8"/>
     </row>
     <row r="33" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1437,10 +1686,11 @@
       <c r="B38" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J4:J14"/>
+    <mergeCell ref="J4:J17"/>
+    <mergeCell ref="J18:J21"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:H86">
     <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="Problems">
@@ -1456,7 +1706,7 @@
       <formula>NOT(ISERROR(SEARCH("Not started",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error" error="Choose from the drop-down list" sqref="H4:H38" xr:uid="{F112ACAC-A447-4858-94FC-F76DDB174C38}">
       <formula1>$K$3:$K$6</formula1>
     </dataValidation>

--- a/SW deliveries log/PO3_DGW_PP.xlsx
+++ b/SW deliveries log/PO3_DGW_PP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iTi_Workspace\SE_Workspace\SWENG_PO3_DigitalWatch\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2943BE33-9B83-4604-B404-E472F1ADC326}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606B4307-C54E-4F75-B439-62D725280B41}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2CF37E19-25A2-4CED-AE59-D4BDD2575E03}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
   <si>
     <t>Task</t>
   </si>
@@ -207,9 +207,6 @@
     <t>23/2/2020</t>
   </si>
   <si>
-    <t>Waiting for SIQ sheet answers</t>
-  </si>
-  <si>
     <t>21/2/2020</t>
   </si>
   <si>
@@ -230,9 +227,6 @@
 3. Make sure both documents are compatible with SIQ answers</t>
   </si>
   <si>
-    <t>Waiting for both documents</t>
-  </si>
-  <si>
     <t>GDD Creation</t>
   </si>
   <si>
@@ -271,6 +265,15 @@
   </si>
   <si>
     <t>Definition Phase</t>
+  </si>
+  <si>
+    <t>28/2/2020</t>
+  </si>
+  <si>
+    <t>Finished reviewing CYRS</t>
+  </si>
+  <si>
+    <t>25/2/2020</t>
   </si>
 </sst>
 </file>
@@ -1080,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77CBEE5-836F-4E68-99E7-88FE062854C8}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1180,7 +1183,7 @@
         <v>4</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>15</v>
@@ -1484,26 +1487,29 @@
         <v>32</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="F15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="H15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="J15" s="17"/>
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>30</v>
@@ -1518,17 +1524,17 @@
         <v>16</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J16" s="17"/>
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>11</v>
@@ -1539,53 +1545,62 @@
       <c r="E17" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="F17" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="H17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="J17" s="17"/>
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>68</v>
+      <c r="F18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>17</v>
@@ -1594,19 +1609,19 @@
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>17</v>
@@ -1618,16 +1633,16 @@
         <v>33</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>17</v>
@@ -1706,7 +1721,7 @@
       <formula>NOT(ISERROR(SEARCH("Not started",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error" error="Choose from the drop-down list" sqref="H4:H38" xr:uid="{F112ACAC-A447-4858-94FC-F76DDB174C38}">
       <formula1>$K$3:$K$6</formula1>
     </dataValidation>

--- a/SW deliveries log/PO3_DGW_PP.xlsx
+++ b/SW deliveries log/PO3_DGW_PP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iTi_Workspace\SE_Workspace\SWENG_PO3_DigitalWatch\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606B4307-C54E-4F75-B439-62D725280B41}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277B02A5-7643-4DE6-9657-74DB9DE5FB98}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2CF37E19-25A2-4CED-AE59-D4BDD2575E03}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="84">
   <si>
     <t>Task</t>
   </si>
@@ -216,9 +216,6 @@
     <t>Use updated CYRS to modify SRS</t>
   </si>
   <si>
-    <t>Waiting for CYRS update</t>
-  </si>
-  <si>
     <t>CYRS &amp; SRS Review</t>
   </si>
   <si>
@@ -270,10 +267,32 @@
     <t>28/2/2020</t>
   </si>
   <si>
-    <t>Finished reviewing CYRS</t>
-  </si>
-  <si>
     <t>25/2/2020</t>
+  </si>
+  <si>
+    <t>There's no review sheet from T.Sharaby</t>
+  </si>
+  <si>
+    <t>GDD Still needs more updating</t>
+  </si>
+  <si>
+    <t>Add software features to GDD</t>
+  </si>
+  <si>
+    <t>Review software features added to GDD</t>
+  </si>
+  <si>
+    <t>CDD Creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a CDD for Mode Navigation component (Req_P03DGW_GDD_01_V01 + 1st 3 SRS requirements) </t>
+  </si>
+  <si>
+    <t>CDD Review</t>
+  </si>
+  <si>
+    <t>1. Create a review sheet for CDD
+2. Make sure CDD is compatible with both GDD and SRS requirements</t>
   </si>
 </sst>
 </file>
@@ -346,29 +365,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -440,51 +441,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -498,13 +459,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -513,38 +468,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1083,14 +1032,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77CBEE5-836F-4E68-99E7-88FE062854C8}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="50.77734375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="50.77734375" style="7" customWidth="1"/>
     <col min="3" max="7" width="25.77734375" style="2" customWidth="1"/>
     <col min="8" max="8" width="20.77734375" style="2" customWidth="1"/>
     <col min="9" max="9" width="25.77734375" style="2" customWidth="1"/>
@@ -1100,30 +1049,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -1161,7 +1110,7 @@
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1182,19 +1131,19 @@
       <c r="H4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="16" t="s">
-        <v>74</v>
+      <c r="J4" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1215,17 +1164,17 @@
       <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="17"/>
+      <c r="J5" s="14"/>
       <c r="K5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="5"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1246,17 +1195,17 @@
       <c r="H6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="17"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="5"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1271,20 +1220,20 @@
       <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>43923</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="L7" s="5"/>
+      <c r="J7" s="14"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1305,82 +1254,82 @@
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="17"/>
-      <c r="L8" s="5"/>
+      <c r="J8" s="14"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>43892</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>43923</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>43892</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>43923</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="17"/>
-      <c r="L9" s="7"/>
+      <c r="J9" s="14"/>
+      <c r="L9" s="16"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>43923</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>43923</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>43953</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>43953</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="L10" s="7"/>
+      <c r="J10" s="14"/>
+      <c r="L10" s="16"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>43923</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>43953</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>43984</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -1389,23 +1338,23 @@
       <c r="H11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="L11" s="7"/>
+      <c r="J11" s="14"/>
+      <c r="L11" s="16"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>43953</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>43953</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -1417,23 +1366,23 @@
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="L12" s="7"/>
+      <c r="J12" s="14"/>
+      <c r="L12" s="16"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -1445,23 +1394,23 @@
       <c r="H13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="17"/>
-      <c r="L13" s="7"/>
+      <c r="J13" s="14"/>
+      <c r="L13" s="16"/>
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -1473,14 +1422,14 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="17"/>
-      <c r="L14" s="7"/>
+      <c r="J14" s="14"/>
+      <c r="L14" s="16"/>
     </row>
     <row r="15" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1493,22 +1442,22 @@
         <v>54</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="17"/>
-      <c r="L15" s="5"/>
+      <c r="J15" s="14"/>
+      <c r="L15" s="16"/>
     </row>
     <row r="16" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1520,21 +1469,24 @@
       <c r="E16" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="F16" s="5">
+        <v>43924</v>
+      </c>
+      <c r="G16" s="5">
+        <v>43954</v>
+      </c>
       <c r="H16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J16" s="17"/>
-      <c r="L16" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>11</v>
@@ -1546,166 +1498,256 @@
         <v>55</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="G17" s="5">
+        <v>43985</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" s="17"/>
-      <c r="L17" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="L17" s="16"/>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="D18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="F18" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="18" t="s">
-        <v>73</v>
+      <c r="J18" s="15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="F19" s="5">
+        <v>43864</v>
+      </c>
+      <c r="G19" s="5">
+        <v>43864</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="19"/>
+        <v>4</v>
+      </c>
+      <c r="J19" s="15"/>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="F20" s="5">
+        <v>43893</v>
+      </c>
+      <c r="G20" s="5">
+        <v>43954</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="19"/>
+        <v>4</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" s="15"/>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>72</v>
+      <c r="B21" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>71</v>
+      <c r="D21" s="5">
+        <v>44046</v>
+      </c>
+      <c r="E21" s="5">
+        <v>44046</v>
       </c>
       <c r="H21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="5">
+        <v>43985</v>
+      </c>
+      <c r="E22" s="5">
+        <v>44015</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="8"/>
+      <c r="J22" s="15"/>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
+      <c r="A23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="5">
+        <v>44015</v>
+      </c>
+      <c r="E23" s="5">
+        <v>44046</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="15"/>
     </row>
     <row r="24" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="8"/>
+      <c r="A24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="5">
+        <v>43985</v>
+      </c>
+      <c r="E24" s="5">
+        <v>44015</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="15"/>
     </row>
     <row r="25" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="8"/>
+      <c r="A25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="5">
+        <v>44015</v>
+      </c>
+      <c r="E25" s="5">
+        <v>44046</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="15"/>
     </row>
     <row r="26" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
+      <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
+      <c r="B27" s="6"/>
     </row>
     <row r="28" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="8"/>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="8"/>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="8"/>
+      <c r="B30" s="6"/>
     </row>
     <row r="31" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="8"/>
+      <c r="B31" s="6"/>
     </row>
     <row r="32" spans="1:12" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="8"/>
+      <c r="B32" s="6"/>
     </row>
     <row r="33" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="8"/>
+      <c r="B33" s="6"/>
     </row>
     <row r="34" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="8"/>
+      <c r="B34" s="6"/>
     </row>
     <row r="35" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="8"/>
+      <c r="B35" s="6"/>
     </row>
     <row r="36" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="8"/>
+      <c r="B36" s="6"/>
     </row>
     <row r="37" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="8"/>
+      <c r="B37" s="6"/>
     </row>
     <row r="38" spans="2:2" s="3" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="8"/>
+      <c r="B38" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J4:J17"/>
-    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="J18:J25"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:H86">
     <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="Problems">
